--- a/data/unified_F931.xlsx
+++ b/data/unified_F931.xlsx
@@ -559,7 +559,7 @@
         <v>17</v>
       </c>
       <c r="C10">
-        <v>3361283</v>
+        <v>3403760</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -570,7 +570,7 @@
         <v>18</v>
       </c>
       <c r="C11">
-        <v>453506</v>
+        <v>459237</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -581,7 +581,7 @@
         <v>19</v>
       </c>
       <c r="C12">
-        <v>2569869</v>
+        <v>2602345</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -614,7 +614,7 @@
         <v>22</v>
       </c>
       <c r="C15">
-        <v>1369722</v>
+        <v>1386281</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -625,7 +625,7 @@
         <v>23</v>
       </c>
       <c r="C16">
-        <v>907012</v>
+        <v>918474</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -636,7 +636,7 @@
         <v>24</v>
       </c>
       <c r="C17">
-        <v>5276</v>
+        <v>9705</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -647,7 +647,7 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>585204</v>
+        <v>589455</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -658,7 +658,7 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>79879</v>
+        <v>80452</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -669,7 +669,7 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>452650</v>
+        <v>455899</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -713,7 +713,7 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>159758</v>
+        <v>160905</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -735,7 +735,7 @@
         <v>17</v>
       </c>
       <c r="C26">
-        <v>70328</v>
+        <v>143717</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -746,7 +746,7 @@
         <v>18</v>
       </c>
       <c r="C27">
-        <v>9901</v>
+        <v>19803</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -757,7 +757,7 @@
         <v>19</v>
       </c>
       <c r="C28">
-        <v>56109</v>
+        <v>112219</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -801,7 +801,7 @@
         <v>23</v>
       </c>
       <c r="C32">
-        <v>19803</v>
+        <v>39606</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -911,7 +911,7 @@
         <v>17</v>
       </c>
       <c r="C42">
-        <v>382716</v>
+        <v>406364</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -922,7 +922,7 @@
         <v>18</v>
       </c>
       <c r="C43">
-        <v>60131</v>
+        <v>63136</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -933,7 +933,7 @@
         <v>19</v>
       </c>
       <c r="C44">
-        <v>340742</v>
+        <v>357774</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -966,7 +966,7 @@
         <v>22</v>
       </c>
       <c r="C47">
-        <v>77941</v>
+        <v>81722</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -977,7 +977,7 @@
         <v>23</v>
       </c>
       <c r="C48">
-        <v>104582</v>
+        <v>110977</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -988,7 +988,7 @@
         <v>24</v>
       </c>
       <c r="C49">
-        <v>703</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1087,7 +1087,7 @@
         <v>17</v>
       </c>
       <c r="C58">
-        <v>10069179</v>
+        <v>9695804</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1098,7 +1098,7 @@
         <v>18</v>
       </c>
       <c r="C59">
-        <v>1300783</v>
+        <v>1309935</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1109,7 +1109,7 @@
         <v>19</v>
       </c>
       <c r="C60">
-        <v>7476523</v>
+        <v>7536259</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1142,7 +1142,7 @@
         <v>22</v>
       </c>
       <c r="C63">
-        <v>906027</v>
+        <v>899682</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1153,7 +1153,7 @@
         <v>23</v>
       </c>
       <c r="C64">
-        <v>2697317</v>
+        <v>2595129</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1164,7 +1164,7 @@
         <v>24</v>
       </c>
       <c r="C65">
-        <v>4045</v>
+        <v>7697</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1175,7 +1175,7 @@
         <v>17</v>
       </c>
       <c r="C66">
-        <v>3753479</v>
+        <v>3978637</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1186,7 +1186,7 @@
         <v>18</v>
       </c>
       <c r="C67">
-        <v>489053</v>
+        <v>518385</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1197,7 +1197,7 @@
         <v>19</v>
       </c>
       <c r="C68">
-        <v>2771305</v>
+        <v>2937516</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1219,7 +1219,7 @@
         <v>21</v>
       </c>
       <c r="C70">
-        <v>207803</v>
+        <v>224714</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1230,7 +1230,7 @@
         <v>22</v>
       </c>
       <c r="C71">
-        <v>1477428</v>
+        <v>1563817</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1241,7 +1241,7 @@
         <v>23</v>
       </c>
       <c r="C72">
-        <v>979076</v>
+        <v>1036770</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1252,7 +1252,7 @@
         <v>24</v>
       </c>
       <c r="C73">
-        <v>527</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1318,7 +1318,7 @@
         <v>22</v>
       </c>
       <c r="C79">
-        <v>42214</v>
+        <v>42245</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1351,7 +1351,7 @@
         <v>17</v>
       </c>
       <c r="C82">
-        <v>1809844</v>
+        <v>1794717</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1362,7 +1362,7 @@
         <v>18</v>
       </c>
       <c r="C83">
-        <v>269504</v>
+        <v>269914</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1373,7 +1373,7 @@
         <v>19</v>
       </c>
       <c r="C84">
-        <v>1515021</v>
+        <v>1517147</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1406,7 +1406,7 @@
         <v>22</v>
       </c>
       <c r="C87">
-        <v>264175</v>
+        <v>265435</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1417,7 +1417,7 @@
         <v>23</v>
       </c>
       <c r="C88">
-        <v>494879</v>
+        <v>490796</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1428,7 +1428,7 @@
         <v>24</v>
       </c>
       <c r="C89">
-        <v>1583</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1439,7 +1439,7 @@
         <v>17</v>
       </c>
       <c r="C90">
-        <v>8296697</v>
+        <v>8597986</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1450,7 +1450,7 @@
         <v>18</v>
       </c>
       <c r="C91">
-        <v>1194781</v>
+        <v>1211461</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1461,7 +1461,7 @@
         <v>19</v>
       </c>
       <c r="C92">
-        <v>6770429</v>
+        <v>6864947</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1494,7 +1494,7 @@
         <v>22</v>
       </c>
       <c r="C95">
-        <v>1099050</v>
+        <v>1114851</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1505,7 +1505,7 @@
         <v>23</v>
       </c>
       <c r="C96">
-        <v>2248718</v>
+        <v>2330236</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1516,7 +1516,7 @@
         <v>24</v>
       </c>
       <c r="C97">
-        <v>5628</v>
+        <v>10709</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1615,7 +1615,7 @@
         <v>17</v>
       </c>
       <c r="C106">
-        <v>11762387</v>
+        <v>11860164</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1626,7 +1626,7 @@
         <v>18</v>
       </c>
       <c r="C107">
-        <v>1719877</v>
+        <v>1730102</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1637,7 +1637,7 @@
         <v>19</v>
       </c>
       <c r="C108">
-        <v>9694810</v>
+        <v>9751475</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1670,7 +1670,7 @@
         <v>22</v>
       </c>
       <c r="C111">
-        <v>1906606</v>
+        <v>1892504</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1681,7 +1681,7 @@
         <v>23</v>
       </c>
       <c r="C112">
-        <v>3142849</v>
+        <v>3169950</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1692,7 +1692,7 @@
         <v>24</v>
       </c>
       <c r="C113">
-        <v>8090</v>
+        <v>15395</v>
       </c>
     </row>
   </sheetData>
